--- a/ClosedXML_Tests/Resource/Examples/PivotTables/PivotTableStyles.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/PivotTables/PivotTableStyles.xlsx
@@ -408,10 +408,10 @@
   </x:dataFields>
   <x:formats count="13">
     <x:format dxfId="2">
-      <x:pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow"/>
+      <x:pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </x:format>
     <x:format dxfId="3">
-      <x:pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow"/>
+      <x:pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </x:format>
     <x:format dxfId="4">
       <x:pivotArea dataOnly="0" labelOnly="1">
@@ -428,10 +428,10 @@
       </x:pivotArea>
     </x:format>
     <x:format dxfId="2">
-      <x:pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow"/>
+      <x:pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </x:format>
     <x:format dxfId="3">
-      <x:pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow"/>
+      <x:pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </x:format>
     <x:format dxfId="6">
       <x:pivotArea dataOnly="0" labelOnly="1">
@@ -455,10 +455,10 @@
       </x:pivotArea>
     </x:format>
     <x:format dxfId="2">
-      <x:pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow"/>
+      <x:pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </x:format>
     <x:format dxfId="3">
-      <x:pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow"/>
+      <x:pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </x:format>
     <x:format dxfId="6">
       <x:pivotArea dataOnly="0" labelOnly="1">
